--- a/Labs/Lab03/mark_lab03.xlsx
+++ b/Labs/Lab03/mark_lab03.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="HOME" sheetId="10" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="47">
   <si>
     <t>Tổng điểm cuối</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t xml:space="preserve"> - lộn xộn quá</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - chưa nộp</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1169,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1176,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1348,7 +1351,7 @@
       </c>
       <c r="Q9" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>100/100</v>
+        <v>0/100</v>
       </c>
       <c r="R9" s="2" t="s">
         <v>16</v>
@@ -1370,7 +1373,7 @@
       </c>
       <c r="Q10" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>100/100</v>
+        <v>0/100</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>17</v>
@@ -1392,7 +1395,7 @@
       </c>
       <c r="Q11" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>100/100</v>
+        <v>0/100</v>
       </c>
       <c r="R11" s="2" t="s">
         <v>18</v>
@@ -1414,7 +1417,7 @@
       </c>
       <c r="Q12" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>100/100</v>
+        <v>0/100</v>
       </c>
       <c r="R12" s="1" t="s">
         <v>19</v>
@@ -1436,7 +1439,7 @@
       </c>
       <c r="Q13" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>100/100</v>
+        <v>0/100</v>
       </c>
       <c r="R13" s="1" t="s">
         <v>20</v>
@@ -1477,7 +1480,7 @@
       </c>
       <c r="Q15" s="19" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>100/100</v>
+        <v>0/100</v>
       </c>
       <c r="R15" s="1" t="s">
         <v>23</v>
@@ -1555,9 +1558,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1878,7 +1879,7 @@
   <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1927,12 +1928,14 @@
         <v>13</v>
       </c>
       <c r="B5" s="28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" s="28">
         <v>10</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="59" t="s">
+        <v>46</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1940,12 +1943,12 @@
         <v>14</v>
       </c>
       <c r="B6" s="29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6" s="29">
         <v>10</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="60"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -1953,60 +1956,60 @@
         <v>15</v>
       </c>
       <c r="B7" s="28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C7" s="28">
         <v>15</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C8" s="29">
         <v>15</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C9" s="36">
         <v>15</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="47">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C10" s="48">
         <v>15</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C11" s="48">
         <v>20</v>
       </c>
-      <c r="D11" s="49"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
@@ -2014,7 +2017,7 @@
       </c>
       <c r="B12" s="38">
         <f>SUM(B5:B11)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C12" s="39">
         <f>SUM(C5:C11)</f>
@@ -2022,8 +2025,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="D5:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2034,7 +2038,7 @@
   <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,12 +2087,14 @@
         <v>13</v>
       </c>
       <c r="B5" s="28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" s="28">
         <v>10</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="59" t="s">
+        <v>46</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2096,12 +2102,12 @@
         <v>14</v>
       </c>
       <c r="B6" s="29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6" s="29">
         <v>10</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="60"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2109,60 +2115,60 @@
         <v>15</v>
       </c>
       <c r="B7" s="28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C7" s="28">
         <v>15</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C8" s="29">
         <v>15</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C9" s="36">
         <v>15</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="47">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C10" s="48">
         <v>15</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C11" s="48">
         <v>20</v>
       </c>
-      <c r="D11" s="49"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
@@ -2170,7 +2176,7 @@
       </c>
       <c r="B12" s="38">
         <f>SUM(B5:B11)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C12" s="39">
         <f>SUM(C5:C11)</f>
@@ -2178,8 +2184,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="D5:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2190,7 +2197,7 @@
   <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2239,12 +2246,14 @@
         <v>13</v>
       </c>
       <c r="B5" s="28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" s="28">
         <v>10</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="59" t="s">
+        <v>46</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2252,12 +2261,12 @@
         <v>14</v>
       </c>
       <c r="B6" s="29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6" s="29">
         <v>10</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="60"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2265,60 +2274,60 @@
         <v>15</v>
       </c>
       <c r="B7" s="28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C7" s="28">
         <v>15</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C8" s="29">
         <v>15</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C9" s="36">
         <v>15</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="47">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C10" s="48">
         <v>15</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C11" s="48">
         <v>20</v>
       </c>
-      <c r="D11" s="49"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
@@ -2326,7 +2335,7 @@
       </c>
       <c r="B12" s="38">
         <f>SUM(B5:B11)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C12" s="39">
         <f>SUM(C5:C11)</f>
@@ -2334,8 +2343,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="D5:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2346,7 +2356,7 @@
   <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,12 +2408,14 @@
         <v>13</v>
       </c>
       <c r="B5" s="28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" s="28">
         <v>10</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="59" t="s">
+        <v>46</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2411,12 +2423,12 @@
         <v>14</v>
       </c>
       <c r="B6" s="29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6" s="29">
         <v>10</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="60"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2424,60 +2436,60 @@
         <v>15</v>
       </c>
       <c r="B7" s="28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C7" s="28">
         <v>15</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C8" s="29">
         <v>15</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C9" s="36">
         <v>15</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="47">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C10" s="48">
         <v>15</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C11" s="48">
         <v>20</v>
       </c>
-      <c r="D11" s="49"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
@@ -2485,7 +2497,7 @@
       </c>
       <c r="B12" s="38">
         <f>SUM(B5:B11)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C12" s="39">
         <f>SUM(C5:C11)</f>
@@ -2493,8 +2505,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="D5:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2505,7 +2518,7 @@
   <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2554,12 +2567,14 @@
         <v>13</v>
       </c>
       <c r="B5" s="28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" s="28">
         <v>10</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="59" t="s">
+        <v>46</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2567,12 +2582,12 @@
         <v>14</v>
       </c>
       <c r="B6" s="29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6" s="29">
         <v>10</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="60"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2580,60 +2595,60 @@
         <v>15</v>
       </c>
       <c r="B7" s="28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C7" s="28">
         <v>15</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C8" s="29">
         <v>15</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C9" s="36">
         <v>15</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="47">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C10" s="48">
         <v>15</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C11" s="48">
         <v>20</v>
       </c>
-      <c r="D11" s="49"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
@@ -2641,7 +2656,7 @@
       </c>
       <c r="B12" s="38">
         <f>SUM(B5:B11)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C12" s="39">
         <f>SUM(C5:C11)</f>
@@ -2649,8 +2664,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="D5:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2815,7 +2831,7 @@
   <dimension ref="A2:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D12"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2864,12 +2880,14 @@
         <v>13</v>
       </c>
       <c r="B5" s="28">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C5" s="28">
         <v>10</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="59" t="s">
+        <v>46</v>
+      </c>
       <c r="M5" s="3"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2877,12 +2895,12 @@
         <v>14</v>
       </c>
       <c r="B6" s="29">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C6" s="29">
         <v>10</v>
       </c>
-      <c r="D6" s="33"/>
+      <c r="D6" s="60"/>
       <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2890,60 +2908,60 @@
         <v>15</v>
       </c>
       <c r="B7" s="28">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C7" s="28">
         <v>15</v>
       </c>
-      <c r="D7" s="33"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
       <c r="B8" s="29">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C8" s="29">
         <v>15</v>
       </c>
-      <c r="D8" s="34"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B9" s="36">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C9" s="36">
         <v>15</v>
       </c>
-      <c r="D9" s="45"/>
+      <c r="D9" s="60"/>
     </row>
     <row r="10" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="46" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="47">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C10" s="48">
         <v>15</v>
       </c>
-      <c r="D10" s="49"/>
+      <c r="D10" s="60"/>
     </row>
     <row r="11" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="46" t="s">
         <v>44</v>
       </c>
       <c r="B11" s="47">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C11" s="48">
         <v>20</v>
       </c>
-      <c r="D11" s="49"/>
+      <c r="D11" s="61"/>
     </row>
     <row r="12" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
@@ -2951,7 +2969,7 @@
       </c>
       <c r="B12" s="38">
         <f>SUM(B5:B11)</f>
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C12" s="39">
         <f>SUM(C5:C11)</f>
@@ -2959,8 +2977,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A2:D2"/>
+    <mergeCell ref="D5:D11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
